--- a/3. Stores/tabla_descripcion.xlsx
+++ b/3. Stores/tabla_descripcion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anionline-my.sharepoint.com/personal/amorales_ani_gov_co/Documents/Documentos/GitHub/Problem_-Set_1/2. Scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anionline-my.sharepoint.com/personal/amorales_ani_gov_co/Documents/Documentos/GitHub/Problem_-Set_1/3. Stores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_90AC3DC08F79A8D366075C52F37BD2725A412487" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93AD8326-AFDC-4F6E-B518-E6AF7A836580}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="11_90AC3DC08F79A8D366075C52F37BD2725A412487" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90898C66-65EF-4CBA-97B6-A19A81CA116C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="344">
   <si>
     <t>Variable</t>
   </si>
@@ -1050,6 +1049,9 @@
   </si>
   <si>
     <t>Justtificar, revisión de las variables que comprende</t>
+  </si>
+  <si>
+    <t>Hijo</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1088,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1117,6 +1119,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1130,7 +1138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1143,6 +1151,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1483,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B175" sqref="B175"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,7 +1512,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1573,11 +1583,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1605,14 +1615,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="8" t="s">
         <v>338</v>
       </c>
     </row>
@@ -1633,7 +1643,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1928,7 +1938,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -1962,12 +1972,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>112</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2659,10 +2672,10 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="11" t="s">
         <v>269</v>
       </c>
     </row>

--- a/3. Stores/tabla_descripcion.xlsx
+++ b/3. Stores/tabla_descripcion.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anionline-my.sharepoint.com/personal/amorales_ani_gov_co/Documents/Documentos/GitHub/Problem_-Set_1/3. Stores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="11_90AC3DC08F79A8D366075C52F37BD2725A412487" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90898C66-65EF-4CBA-97B6-A19A81CA116C}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="11_90AC3DC08F79A8D366075C52F37BD2725A412487" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFC15F5C-DB61-41CD-9270-507B70356A0D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3045" yWindow="3555" windowWidth="15825" windowHeight="7185" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="355">
   <si>
     <t>Variable</t>
   </si>
@@ -1052,6 +1053,40 @@
   </si>
   <si>
     <t>Hijo</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>preschool</t>
+  </si>
+  <si>
+    <t>primary incomplete (1-4)</t>
+  </si>
+  <si>
+    <t>primary complete (5)</t>
+  </si>
+  <si>
+    <t>secondary incomplete (6-10)</t>
+  </si>
+  <si>
+    <t>secondary complete (11)</t>
+  </si>
+  <si>
+    <t>terciary</t>
+  </si>
+  <si>
+    <t>Nivel</t>
+  </si>
+  <si>
+    <t>p6210s1 + 2</t>
+  </si>
+  <si>
+    <t>p6210s1 + 13</t>
+  </si>
+  <si>
+    <t>Edu
+(años de educación finalizados)</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1134,11 +1169,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1153,6 +1203,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1493,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B61" sqref="A61:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2954,4 +3014,111 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C153D2CA-70CF-4245-BDEF-CE780C5FC090}">
+  <dimension ref="B2:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="12">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="12">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="12">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="12">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="12">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D8" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="12">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>